--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -445,6 +445,36 @@
   </si>
   <si>
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l'entité juridique.</t>
+  </si>
+  <si>
+    <t>EntiteJuridique.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
+  </si>
+  <si>
+    <t>EntiteJuridique.DispositifMedical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DispositifMedical
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe DispositifMedical</t>
+  </si>
+  <si>
+    <t>EntiteJuridique.Certificat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Certificat
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Certificat</t>
   </si>
 </sst>
 </file>
@@ -749,7 +779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -768,7 +798,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3391,6 +3421,306 @@
         <v>71</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteJuridique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteJuridique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
